--- a/outputs-HGR-r202/g__Eubacterium_G.xlsx
+++ b/outputs-HGR-r202/g__Eubacterium_G.xlsx
@@ -580,7 +580,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>s__Eubacterium_G sp000434315(reject)</t>
+          <t>s__Eubacterium_G sp000434315</t>
         </is>
       </c>
     </row>

--- a/outputs-HGR-r202/g__Eubacterium_G.xlsx
+++ b/outputs-HGR-r202/g__Eubacterium_G.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,6 +490,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -529,6 +534,11 @@
           <t>s__Eubacterium_G sp000435815</t>
         </is>
       </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_G sp000435815</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -568,6 +578,11 @@
           <t>s__Eubacterium_G sp000434315</t>
         </is>
       </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_G sp000434315</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -607,6 +622,11 @@
           <t>s__Eubacterium_G sp900556905</t>
         </is>
       </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_G sp900556905</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -646,6 +666,11 @@
           <t>s__Eubacterium_G sp000435815</t>
         </is>
       </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_G sp000435815</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -685,6 +710,11 @@
           <t>s__Eubacterium_G sp000435815</t>
         </is>
       </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_G sp000435815</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -724,6 +754,11 @@
           <t>s__Eubacterium_G sp000435815</t>
         </is>
       </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_G sp000435815</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -763,6 +798,11 @@
           <t>s__Eubacterium_G ventriosum</t>
         </is>
       </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_G ventriosum</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -798,6 +838,11 @@
         <v>0.407911887031916</v>
       </c>
       <c r="K9" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_G sp000435815</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
         <is>
           <t>s__Eubacterium_G sp000435815</t>
         </is>

--- a/outputs-HGR-r202/g__Eubacterium_G.xlsx
+++ b/outputs-HGR-r202/g__Eubacterium_G.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -804,50 +804,6 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT81692.fa</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.003649382634756253</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.002923165261793361</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.407911887031916</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.02708647054069383</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.000736119550388307</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.1027214971065064</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.146612462713839</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.308359015160107</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.407911887031916</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>s__Eubacterium_G sp000435815</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>s__Eubacterium_G sp000435815</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/outputs-HGR-r202/g__Eubacterium_G.xlsx
+++ b/outputs-HGR-r202/g__Eubacterium_G.xlsx
@@ -624,7 +624,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>s__Eubacterium_G sp000434315</t>
+          <t>s__Eubacterium_G sp000434315(reject)</t>
         </is>
       </c>
     </row>
@@ -712,7 +712,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>s__Eubacterium_G sp000434315</t>
+          <t>s__Eubacterium_G sp000434315(reject)</t>
         </is>
       </c>
     </row>
